--- a/biology/Médecine/Aponévrose_dorsale_du_doigt/Aponévrose_dorsale_du_doigt.xlsx
+++ b/biology/Médecine/Aponévrose_dorsale_du_doigt/Aponévrose_dorsale_du_doigt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apon%C3%A9vrose_dorsale_du_doigt</t>
+          <t>Aponévrose_dorsale_du_doigt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aponévroses dorsales des doigts sont les aponévroses qui recouvrent chaque partie terminale des tendons du muscle extenseur des doigts de la main au niveau de la face dorsale des doigts.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apon%C3%A9vrose_dorsale_du_doigt</t>
+          <t>Aponévrose_dorsale_du_doigt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une aponévrose dorsale du doigt est une structure fibreuse constituée d'un faisceau central en forme de demi-cône qui entoure la phalange proximale. Ses bords adhèrent au tendon du muscle extenseur des doigts.
 Latéralement et médialement, des bandelettes latérales renforcent le faisceau central. Elles sont issues des tendons des muscles lombricaux et interosseux.
